--- a/doors_detection_long_term/scripts/results/detr_ap_simulation_0.5.xlsx
+++ b/doors_detection_long_term/scripts/results/detr_ap_simulation_0.5.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5074307500778089</t>
+          <t>0.5033155237403604</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.520518899159289</t>
+          <t>0.5205830702033336</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.44218381238777066</t>
+          <t>0.44232194585923745</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.29985019086846654</t>
+          <t>0.2997577442971467</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4825038740873487</t>
+          <t>0.4826594353830357</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.5171939708253183</t>
+          <t>0.5172225316366968</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.5358220562330615</t>
+          <t>0.5402180658064216</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>83</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.25441461955322564</t>
+          <t>0.25435329240102145</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.24729998105047807</t>
+          <t>0.2471524813389795</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.24904826862346974</t>
+          <t>0.24869740231449947</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.2551322321271887</t>
+          <t>0.2551905309710435</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.6414978364218066</t>
+          <t>0.6415758039696536</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.45396352293507547</t>
+          <t>0.45366674862840334</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.3450655836378275</t>
+          <t>0.3462692738774346</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.5390814702908393</t>
+          <t>0.5392999647975893</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.44421371179999863</t>
+          <t>0.44455681676266884</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.35647684156513176</t>
+          <t>0.3564518017044382</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>122</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.2194443515519097</t>
+          <t>0.2241170099289624</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.36346915506971345</t>
+          <t>0.3637546018756175</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>142</t>
         </is>
       </c>
     </row>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.34455617021821644</t>
+          <t>0.3443989375138139</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.4789079568163265</t>
+          <t>0.4787565704071529</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.5341443974520313</t>
+          <t>0.5337663179189728</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.31653993133602465</t>
+          <t>0.31667581042993026</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.5995846818503933</t>
+          <t>0.59991453040394</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.6400272391109799</t>
+          <t>0.6401740267929611</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.35045301178024296</t>
+          <t>0.3502263028578818</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.4322216184771951</t>
+          <t>0.432265535754234</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.42835522423590094</t>
+          <t>0.42862418885269166</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.4387341373122099</t>
+          <t>0.4387366320193745</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>162</t>
         </is>
       </c>
     </row>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.6155935919031895</t>
+          <t>0.6155974369429812</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.6228947248208231</t>
+          <t>0.6231719355447655</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.6545794812846684</t>
+          <t>0.6545853285946535</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.7300810441970369</t>
+          <t>0.7299996018387122</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.6406615200073501</t>
+          <t>0.641192304629915</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.6114509566283847</t>
+          <t>0.611747962673933</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.6746578104661854</t>
+          <t>0.6743755569020522</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.7337352070453083</t>
+          <t>0.7333970369138996</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.6681898531717536</t>
+          <t>0.6680000433850409</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.7108844125560978</t>
+          <t>0.7108078897523022</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.7163533827038849</t>
+          <t>0.716262913921096</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.7765001137793008</t>
+          <t>0.7765088787831007</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3766,7 +3766,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.763093269206174</t>
+          <t>0.7630864485928955</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.7741816555941762</t>
+          <t>0.774001280413801</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.4774636316571801</t>
+          <t>0.478364532558081</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3966,7 +3966,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.7172080217847656</t>
+          <t>0.7172049543747998</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.6992640726859332</t>
+          <t>0.6993900304920462</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.6655498809871233</t>
+          <t>0.6655189743580124</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.6918712178070769</t>
+          <t>0.6916272833269107</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0.694891118212563</t>
+          <t>0.6951881894502601</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.7324283172419289</t>
+          <t>0.73251066403769</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4481,7 +4481,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.710317029095052</t>
+          <t>0.7103388733547311</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0.768011538615235</t>
+          <t>0.768311697078098</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0.8015994726065208</t>
+          <t>0.806700769919968</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>121</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.8350352294698867</t>
+          <t>0.835122463755195</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.8149510058906683</t>
+          <t>0.8147115424143249</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.8225996392444708</t>
+          <t>0.8226658130337877</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.7975788761539341</t>
+          <t>0.7975874738619677</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.8309898295110433</t>
+          <t>0.8308489886212065</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5366,7 +5366,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0.6221790065062014</t>
+          <t>0.6223431799787285</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0.6206295958356118</t>
+          <t>0.6206362120320105</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>0.6196196961540125</t>
+          <t>0.6194333911651856</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5666,7 +5666,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>0.6298235878401065</t>
+          <t>0.6301246528264992</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>0.6322514117381075</t>
+          <t>0.6319238872671781</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>0.5922045101678435</t>
+          <t>0.5921098920759126</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>0.3487179487179487</t>
+          <t>0.3403846153846154</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>0.5908863140399774</t>
+          <t>0.5954908261448641</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -6066,7 +6066,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>0.5864729129853223</t>
+          <t>0.5871363809955722</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -6266,7 +6266,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>0.6659430297175454</t>
+          <t>0.665955385175579</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>0.6493558402453133</t>
+          <t>0.6494864347132703</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>0.7201188612480287</t>
+          <t>0.7203523554126786</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6566,7 +6566,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>0.6798344884867286</t>
+          <t>0.6796361892475083</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6666,7 +6666,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>0.6984992320941018</t>
+          <t>0.698394573101145</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>0.632319796549043</t>
+          <t>0.6323275490296003</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6731,7 +6731,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -6766,7 +6766,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>0.5307581911637025</t>
+          <t>0.5308020507579341</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>0.6870701453325471</t>
+          <t>0.6869137848673674</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>0.564178383379057</t>
+          <t>0.5641124753009416</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>0.6605877346690653</t>
+          <t>0.6606933275138858</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>0.378844078382681</t>
+          <t>0.37870041490832385</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>107</t>
         </is>
       </c>
     </row>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>0.6969654693996422</t>
+          <t>0.6969582636162973</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>0.4284586298447655</t>
+          <t>0.42855440969647024</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>0.7380107998519577</t>
+          <t>0.7378070464715307</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -7166,7 +7166,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>0.5573960969663845</t>
+          <t>0.5575015550575176</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>0.7396982522807205</t>
+          <t>0.7396027102519999</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -7231,7 +7231,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7266,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>0.5555076896967164</t>
+          <t>0.5557452319331786</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -7316,7 +7316,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>0.6922247918513431</t>
+          <t>0.6920762737663666</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>0.4692713699040785</t>
+          <t>0.46922841855523345</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7416,7 +7416,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>0.7482835080847013</t>
+          <t>0.7483720335899007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7466,7 +7466,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>0.5122181710994534</t>
+          <t>0.5124155003027836</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>0.7337001854980247</t>
+          <t>0.7336638641732286</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7566,7 +7566,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>0.6053248302361883</t>
+          <t>0.6055023905254912</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>0.731038784560345</t>
+          <t>0.730958548903454</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>0.5636498912146779</t>
+          <t>0.5637459060858602</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>0.7439245387569595</t>
+          <t>0.7386746586030702</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>115</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>0.5673347248828171</t>
+          <t>0.5674319677077907</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>0.814618131140091</t>
+          <t>0.8146981594457849</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7866,7 +7866,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>0.5939185594528769</t>
+          <t>0.5906080973968635</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7876,7 +7876,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>125</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7916,7 +7916,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>0.7462561295557714</t>
+          <t>0.7463358468080677</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7966,7 +7966,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>0.6225819439890489</t>
+          <t>0.6224562661675408</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8016,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>0.7931895633337331</t>
+          <t>0.7930492931974176</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>0.6577306126872623</t>
+          <t>0.6578495335194686</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -8116,7 +8116,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>0.4219771837321713</t>
+          <t>0.4215921341274965</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -8216,7 +8216,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>0.4518826357269061</t>
+          <t>0.452238956255861</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -8266,7 +8266,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>0.7209658248520763</t>
+          <t>0.7205821468546055</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -8316,7 +8316,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>0.4483206224621784</t>
+          <t>0.44805688962649404</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -8366,7 +8366,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>0.608334156059568</t>
+          <t>0.6083779817277707</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -8416,7 +8416,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>0.5397403064407812</t>
+          <t>0.5398946667551564</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8531,7 +8531,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -8566,7 +8566,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>0.74978739944471</t>
+          <t>0.7496558105195907</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8616,7 +8616,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>0.5340101969298453</t>
+          <t>0.5343368519821099</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8666,7 +8666,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>0.7862913793216084</t>
+          <t>0.7864561915167014</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8681,7 +8681,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -8716,7 +8716,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>0.6171070841866633</t>
+          <t>0.6168536251374191</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>0.6904964741795331</t>
+          <t>0.6908074419401311</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>0.6652385454063742</t>
+          <t>0.6649682004995382</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>0.6393356594716365</t>
+          <t>0.6385864087223858</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8966,7 +8966,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>0.8101792984118391</t>
+          <t>0.8100503771285441</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>0.7673998441509263</t>
+          <t>0.7753650420719347</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>0.8603554290412213</t>
+          <t>0.8601606650227412</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -9116,7 +9116,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>0.6719118029658186</t>
+          <t>0.6729532508409148</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -9166,7 +9166,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>0.7619121986731842</t>
+          <t>0.7620350776054182</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -9216,7 +9216,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>0.7966524292234953</t>
+          <t>0.7965481814752466</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>0.8652109976750663</t>
+          <t>0.8650864253115381</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -9316,7 +9316,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>0.7199449546193983</t>
+          <t>0.7201524624852697</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -9366,7 +9366,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>0.8006774503191304</t>
+          <t>0.8006581885549604</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -9416,7 +9416,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>0.8365003827806783</t>
+          <t>0.836676489835201</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>0.8969978609536746</t>
+          <t>0.8970818552078982</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9516,7 +9516,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>0.6263801050761335</t>
+          <t>0.6263278308393373</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9566,7 +9566,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>0.44164642618547734</t>
+          <t>0.4413201069059788</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9616,7 +9616,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>0.6038889678513198</t>
+          <t>0.6032520671029106</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9631,7 +9631,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -9716,7 +9716,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>0.667428373253184</t>
+          <t>0.6674914715880743</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9731,7 +9731,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -9766,7 +9766,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>0.48154330598446676</t>
+          <t>0.48186945251890456</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9816,7 +9816,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>0.6983220406492471</t>
+          <t>0.6983643060761279</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9866,7 +9866,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>0.5247674265155551</t>
+          <t>0.5249147982661877</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9916,7 +9916,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>0.7297486535253532</t>
+          <t>0.7298526836461057</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>0.7559654015530773</t>
+          <t>0.7564472866132134</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>0.7072630271840153</t>
+          <t>0.7074260304541483</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -10131,7 +10131,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -10166,7 +10166,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>0.6315890206680447</t>
+          <t>0.6316757584597005</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>0.7083369262122784</t>
+          <t>0.7083011462851941</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -10266,7 +10266,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>0.6584413672043367</t>
+          <t>0.6476241650827866</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -10316,7 +10316,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>0.7439584958000145</t>
+          <t>0.7439540838435457</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -10366,7 +10366,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>0.6508826720977212</t>
+          <t>0.651372623659206</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -10416,7 +10416,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>0.7784609705718568</t>
+          <t>0.778496934700794</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -10466,7 +10466,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>0.6461855233367216</t>
+          <t>0.6459784108146107</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10516,7 +10516,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>0.7748773650044594</t>
+          <t>0.7747699580396236</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10566,7 +10566,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>0.5586178725419626</t>
+          <t>0.5589109317946492</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>0.8043407012751258</t>
+          <t>0.8039769509380652</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10666,7 +10666,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>0.6431772013570095</t>
+          <t>0.6428844184555309</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10716,7 +10716,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>0.749825095563244</t>
+          <t>0.7500808273529125</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10731,7 +10731,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -10766,7 +10766,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>0.5863859937985918</t>
+          <t>0.5860896992581149</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10816,7 +10816,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>0.7706314385495172</t>
+          <t>0.7703861075603674</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10866,7 +10866,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>0.6926239405653025</t>
+          <t>0.6923660982648023</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10966,7 +10966,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>0.4442704832609444</t>
+          <t>0.4418231212752475</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10976,7 +10976,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>146</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>0.4280509803324149</t>
+          <t>0.42712590645684045</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -11066,7 +11066,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>0.5076550569288061</t>
+          <t>0.507236960116891</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -11116,7 +11116,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>0.3279991056467308</t>
+          <t>0.32748102804531987</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -11166,7 +11166,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>0.4628013664606928</t>
+          <t>0.46323312524048155</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -11266,7 +11266,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>0.4670565866160201</t>
+          <t>0.46732144341588605</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -11281,7 +11281,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>160</t>
         </is>
       </c>
     </row>
@@ -11366,7 +11366,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>0.5021373165261841</t>
+          <t>0.5019435723280948</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>0.4076471984328022</t>
+          <t>0.40735248298564775</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -11466,7 +11466,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>0.5056026930501749</t>
+          <t>0.5031115892835594</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -11476,7 +11476,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>145</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -11516,7 +11516,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>0.5344915438878287</t>
+          <t>0.534804636866956</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11566,7 +11566,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>0.547597564862401</t>
+          <t>0.547897541705443</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11666,7 +11666,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>0.6149723985082939</t>
+          <t>0.6149778923028947</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11766,7 +11766,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>0.5489710823602183</t>
+          <t>0.5491077522491267</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>175</t>
         </is>
       </c>
     </row>
@@ -11816,7 +11816,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>0.5528062728433695</t>
+          <t>0.5649857600228566</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11826,7 +11826,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11866,7 +11866,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>0.6563140202054148</t>
+          <t>0.6563390972560779</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11881,7 +11881,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>125</t>
         </is>
       </c>
     </row>
@@ -11966,7 +11966,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>0.5940444303081405</t>
+          <t>0.5939962077449283</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -12066,7 +12066,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>0.65972011644576</t>
+          <t>0.6601731421678905</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -12116,7 +12116,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>0.6534695011982544</t>
+          <t>0.6531135907181204</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -12166,7 +12166,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>0.5838502056855863</t>
+          <t>0.5836501767754104</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -12216,7 +12216,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>0.6720654794973783</t>
+          <t>0.6713201568183885</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -12266,7 +12266,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>0.6566437963942309</t>
+          <t>0.6567890870606958</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -12281,7 +12281,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>121</t>
         </is>
       </c>
     </row>
@@ -12366,7 +12366,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>0.5340174369428549</t>
+          <t>0.5339259339991124</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -12466,7 +12466,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>0.48698282324015135</t>
+          <t>0.4868585801806287</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -12566,7 +12566,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>0.49202905074387693</t>
+          <t>0.49204106054351865</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>0.49338772608976167</t>
+          <t>0.4930250078016196</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -12666,7 +12666,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>0.510132506986107</t>
+          <t>0.4992865911513536</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
@@ -12676,12 +12676,12 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -12766,7 +12766,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>0.5351843689826392</t>
+          <t>0.530481989486387</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -12776,7 +12776,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12816,7 +12816,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>0.5254277323691425</t>
+          <t>0.5251148348078173</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -12866,7 +12866,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>0.526666726513659</t>
+          <t>0.526682969948604</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
@@ -12916,7 +12916,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>0.5462979765146628</t>
+          <t>0.5461470103310879</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -12966,7 +12966,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>0.5379958221132959</t>
+          <t>0.5377965268696547</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -13016,7 +13016,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>0.5046395158842458</t>
+          <t>0.5046815807229446</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -13066,7 +13066,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>0.5436681749837271</t>
+          <t>0.5488254168939654</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -13076,12 +13076,12 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>67</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -13166,7 +13166,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>0.5993903648669914</t>
+          <t>0.5992389856584447</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -13216,7 +13216,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>0.5743268525442439</t>
+          <t>0.57387990698629</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
@@ -13266,7 +13266,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>0.5983660667381206</t>
+          <t>0.5981261121712755</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
@@ -13316,7 +13316,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>0.5109063690075516</t>
+          <t>0.5110859870828021</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
@@ -13366,7 +13366,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>0.5836400115647783</t>
+          <t>0.5838225230654046</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
@@ -13381,7 +13381,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -13416,7 +13416,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>0.6002032317836093</t>
+          <t>0.6004618015235621</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
@@ -13466,7 +13466,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>0.6093114042344425</t>
+          <t>0.6094353655179309</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>0.5690588443814252</t>
+          <t>0.5468431434157242</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -13526,7 +13526,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>36</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -13566,7 +13566,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>0.5923716838207989</t>
+          <t>0.5922823895234499</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -13616,7 +13616,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>0.694576155130098</t>
+          <t>0.6949120407480976</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -13666,7 +13666,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>0.6566376105863452</t>
+          <t>0.6566499623650013</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -13716,7 +13716,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>0.4459481573003635</t>
+          <t>0.44581861347538626</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
@@ -13766,7 +13766,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>0.6911448527817777</t>
+          <t>0.6909759030086768</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
@@ -13781,7 +13781,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>166</t>
         </is>
       </c>
     </row>
@@ -13816,7 +13816,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>0.5329881443927328</t>
+          <t>0.5334006789422355</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
@@ -13866,7 +13866,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>0.6739375088831773</t>
+          <t>0.6738648994933928</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
@@ -13881,7 +13881,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>151</t>
         </is>
       </c>
     </row>
@@ -13916,7 +13916,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>0.5148763930309425</t>
+          <t>0.5149718493119657</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -13966,7 +13966,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>0.6557805034611793</t>
+          <t>0.6555051387278132</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>0.4963235082630928</t>
+          <t>0.49672534974906857</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -14031,7 +14031,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -14066,7 +14066,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>0.6815317981154171</t>
+          <t>0.6814507422134239</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
@@ -14116,7 +14116,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>0.5854821370215514</t>
+          <t>0.5848886547625628</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
@@ -14166,7 +14166,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>0.6990043112660045</t>
+          <t>0.6990031355397072</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -14181,7 +14181,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -14216,7 +14216,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>0.6648405256311652</t>
+          <t>0.664495593035757</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -14266,7 +14266,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>0.708580058393824</t>
+          <t>0.7090045611486263</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
@@ -14281,7 +14281,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>143</t>
         </is>
       </c>
     </row>
@@ -14316,7 +14316,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>0.5551687630199778</t>
+          <t>0.5553195625378771</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -14366,7 +14366,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>0.6727363861361504</t>
+          <t>0.6727184423987275</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
@@ -14416,7 +14416,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>0.552477407720695</t>
+          <t>0.5530219989396097</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -14466,7 +14466,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>0.6920964280986717</t>
+          <t>0.6920833631165072</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -14516,7 +14516,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>0.665614848104426</t>
+          <t>0.6655734334998614</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
@@ -14566,7 +14566,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>0.711836267512243</t>
+          <t>0.7115996631619208</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
@@ -14581,7 +14581,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>105</t>
         </is>
       </c>
     </row>
@@ -14616,7 +14616,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>0.7142394883472973</t>
+          <t>0.7148479983540332</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -14666,7 +14666,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>0.7000161098003327</t>
+          <t>0.6998604319799542</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -14716,7 +14716,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>0.6136538922641932</t>
+          <t>0.6133290122813262</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -14766,7 +14766,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>0.6951587719849583</t>
+          <t>0.6952332966950855</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -14781,7 +14781,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>190</t>
         </is>
       </c>
     </row>
@@ -14816,7 +14816,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>0.6779538969382894</t>
+          <t>0.6769421376519782</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -14866,7 +14866,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>0.7373275623904332</t>
+          <t>0.7440480069608978</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
@@ -14876,12 +14876,12 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>220</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -14966,7 +14966,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>0.7407899346154634</t>
+          <t>0.7407007871621463</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>0.765291057929957</t>
+          <t>0.765377908258204</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
@@ -15031,7 +15031,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -15066,7 +15066,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>0.7637945418466165</t>
+          <t>0.7605036191079906</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
@@ -15076,12 +15076,12 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>221</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -15166,7 +15166,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>0.5272929233654107</t>
+          <t>0.5272442997163341</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -15216,7 +15216,7 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>0.5336022184255511</t>
+          <t>0.5337572915314439</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
@@ -15266,7 +15266,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>0.5709346845902776</t>
+          <t>0.5712367472171329</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
@@ -15366,7 +15366,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>0.45276607703134936</t>
+          <t>0.45288829287054383</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
@@ -15416,7 +15416,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>0.537401679091108</t>
+          <t>0.5371559788454078</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
@@ -15431,7 +15431,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -15466,7 +15466,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>0.48419275963748537</t>
+          <t>0.48414907993548134</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
@@ -15516,7 +15516,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>0.5341923764729615</t>
+          <t>0.5339082405794361</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
@@ -15531,7 +15531,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -15566,7 +15566,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>0.5245804785156479</t>
+          <t>0.524512428139289</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
@@ -15581,7 +15581,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>177</t>
         </is>
       </c>
     </row>
@@ -15616,7 +15616,7 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>0.5972220698898995</t>
+          <t>0.5971637165529873</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
@@ -15666,7 +15666,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>0.5199998442831102</t>
+          <t>0.5200997706635901</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
@@ -15681,7 +15681,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>119</t>
         </is>
       </c>
     </row>
@@ -15716,7 +15716,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>0.5466502316580678</t>
+          <t>0.5475805661410339</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
@@ -15731,7 +15731,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -15766,7 +15766,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>0.4661282767082168</t>
+          <t>0.4661594719632709</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
@@ -15866,7 +15866,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>0.5025629182961701</t>
+          <t>0.5025455154776367</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
@@ -15881,7 +15881,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>195</t>
         </is>
       </c>
     </row>
@@ -15916,7 +15916,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>0.673859442839596</t>
+          <t>0.6737195513953567</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
@@ -15966,7 +15966,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>0.5062566831929177</t>
+          <t>0.5056100006077031</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
@@ -16016,7 +16016,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>0.6717293667293669</t>
+          <t>0.6711663817441966</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
@@ -16066,7 +16066,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>0.5841447534102095</t>
+          <t>0.5840832907699381</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
@@ -16116,7 +16116,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>0.6575009997411042</t>
+          <t>0.6578944731918663</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
@@ -16166,7 +16166,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>0.5175008252202731</t>
+          <t>0.5172183871357207</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>0.6622377413323945</t>
+          <t>0.6624257988480384</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
@@ -16266,7 +16266,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>0.537905104930453</t>
+          <t>0.5379612851204518</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
@@ -16316,7 +16316,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>0.6763945316866885</t>
+          <t>0.6766704166443436</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
@@ -16366,7 +16366,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>0.5810707195935243</t>
+          <t>0.5814233962401548</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
@@ -16381,7 +16381,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>192</t>
         </is>
       </c>
     </row>
@@ -16466,7 +16466,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>0.6173395445047718</t>
+          <t>0.6173809270873819</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
@@ -16481,7 +16481,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>140</t>
         </is>
       </c>
     </row>
